--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -368,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,6 +417,19 @@
       <c r="D3"/>
       <c r="E3">
         <v>968.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>112.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -368,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6 +430,58 @@
       <c r="D4"/>
       <c r="E4">
         <v>112.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>362.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>56.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -368,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,149 @@
       <c r="D8"/>
       <c r="E8">
         <v>56.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19">
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -368,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,541 @@
       <c r="D19"/>
       <c r="E19">
         <v>500.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>34534534</v>
+      </c>
+      <c r="E60">
+        <v>305.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/orders.xlsx
+++ b/public/orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -32,7 +32,11 @@
     <t>grand total</t>
   </si>
   <si>
-    <t>admin@example.com</t>
+    <t>alex3dfree@gmail.com</t>
+  </si>
+  <si>
+    <t>ვიღებ ვალდებულებას მივყვე მოთხოვნებს, რომლებიც წარმოდგენილია
+        ექსპლუატაციის ინსტრუქციაში და საგარანტიო ტალონში.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +372,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +396,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,12 +408,17 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2"/>
+      <c r="D2">
+        <v>34265</v>
+      </c>
       <c r="E2">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -414,12 +426,17 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3"/>
+      <c r="D3">
+        <v>234653462</v>
+      </c>
       <c r="E3">
-        <v>968.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -427,12 +444,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4"/>
+      <c r="D4">
+        <v>234653462</v>
+      </c>
       <c r="E4">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -440,12 +462,17 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5"/>
+      <c r="D5">
+        <v>234653462</v>
+      </c>
       <c r="E5">
-        <v>362.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -453,12 +480,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6"/>
+      <c r="D6">
+        <v>234653462</v>
+      </c>
       <c r="E6">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -466,12 +498,17 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7"/>
+      <c r="D7">
+        <v>234653462</v>
+      </c>
       <c r="E7">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -479,12 +516,17 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8"/>
+      <c r="D8">
+        <v>234653462</v>
+      </c>
       <c r="E8">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -492,12 +534,17 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9"/>
+      <c r="D9">
+        <v>234653462</v>
+      </c>
       <c r="E9">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -505,12 +552,17 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10"/>
+      <c r="D10">
+        <v>234653462</v>
+      </c>
       <c r="E10">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -518,12 +570,17 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11"/>
+      <c r="D11">
+        <v>234653462</v>
+      </c>
       <c r="E11">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -531,12 +588,17 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12"/>
+      <c r="D12">
+        <v>234653462</v>
+      </c>
       <c r="E12">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -544,12 +606,17 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13"/>
+      <c r="D13">
+        <v>234653462</v>
+      </c>
       <c r="E13">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -557,12 +624,17 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14"/>
+      <c r="D14">
+        <v>234653462</v>
+      </c>
       <c r="E14">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -570,12 +642,17 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15"/>
+      <c r="D15">
+        <v>234653462</v>
+      </c>
       <c r="E15">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -583,12 +660,17 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16"/>
+      <c r="D16">
+        <v>234653462</v>
+      </c>
       <c r="E16">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -596,12 +678,17 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17"/>
+      <c r="D17">
+        <v>234653462</v>
+      </c>
       <c r="E17">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -609,12 +696,17 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18"/>
+      <c r="D18">
+        <v>234653462</v>
+      </c>
       <c r="E18">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -622,12 +714,17 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19"/>
+      <c r="D19">
+        <v>234653462</v>
+      </c>
       <c r="E19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -635,12 +732,17 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20"/>
+      <c r="D20">
+        <v>234653462</v>
+      </c>
       <c r="E20">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -648,12 +750,17 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21"/>
+      <c r="D21">
+        <v>234653462</v>
+      </c>
       <c r="E21">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -661,12 +768,17 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22"/>
+      <c r="D22">
+        <v>234653462</v>
+      </c>
       <c r="E22">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -674,12 +786,17 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23"/>
+      <c r="D23">
+        <v>234653462</v>
+      </c>
       <c r="E23">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -687,12 +804,17 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24"/>
+      <c r="D24">
+        <v>234653462</v>
+      </c>
       <c r="E24">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -700,12 +822,17 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25"/>
+      <c r="D25">
+        <v>234653462</v>
+      </c>
       <c r="E25">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -713,12 +840,17 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26"/>
+      <c r="D26">
+        <v>234653462</v>
+      </c>
       <c r="E26">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -726,12 +858,17 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27"/>
+      <c r="D27">
+        <v>234653462</v>
+      </c>
       <c r="E27">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -739,12 +876,17 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28"/>
+      <c r="D28">
+        <v>234653462</v>
+      </c>
       <c r="E28">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -752,12 +894,17 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29"/>
+      <c r="D29">
+        <v>234653462</v>
+      </c>
       <c r="E29">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -765,12 +912,17 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30"/>
+      <c r="D30">
+        <v>234653462</v>
+      </c>
       <c r="E30">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -778,12 +930,17 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31"/>
+      <c r="D31">
+        <v>234653462</v>
+      </c>
       <c r="E31">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>546.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -791,375 +948,14 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32"/>
+      <c r="D32">
+        <v>234653462</v>
+      </c>
       <c r="E32">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59">
-        <v>305.0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>34534534</v>
-      </c>
-      <c r="E60">
-        <v>305.0</v>
+        <v>546.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
